--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kou1210hei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13801D1-B401-4802-9C49-56E66DE7B867}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDD66A-4836-4503-8B07-9EE3CE0D5416}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,20 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム定義</t>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -111,10 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,19 +177,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(256)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(64)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -292,14 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DOUBLE(6, 3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HEALTH_INFO_FILE_SETTING</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,6 +351,52 @@
   </si>
   <si>
     <t>MAIL_PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6, 3</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -389,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +417,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +483,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -794,204 +818,226 @@
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1000,401 +1046,449 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1403,8 +1497,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1413,8 +1508,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1423,8 +1519,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1433,9 +1530,10 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H33" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:I33" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kou1210hei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDD66A-4836-4503-8B07-9EE3CE0D5416}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578F52F-1476-4383-ABD6-1C5B9A856384}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -38,26 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名(英名)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名(和名)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ワメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ACCOUNT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,6 +377,32 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名(物理名)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名(論理名)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -473,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +491,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +815,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,674 +828,674 @@
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="G28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kou1210hei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578F52F-1476-4383-ABD6-1C5B9A856384}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FE504-7D3E-4BCB-9808-EA7C13905EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +399,10 @@
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,9 +491,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +812,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -828,16 +825,16 @@
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -861,641 +858,641 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kou1210hei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FE504-7D3E-4BCB-9808-EA7C13905EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07968EAC-475F-47AC-8208-2821E3C39EC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -806,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1211,10 +1211,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
@@ -1224,27 +1224,23 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1254,19 +1250,21 @@
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1280,10 +1278,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>63</v>
@@ -1303,10 +1301,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>63</v>
@@ -1326,10 +1324,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>63</v>
@@ -1349,15 +1347,17 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1370,10 +1370,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>23</v>
@@ -1383,27 +1383,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1413,19 +1409,21 @@
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1439,10 +1437,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>63</v>
@@ -1462,15 +1460,17 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1483,10 +1483,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>23</v>
@@ -1495,13 +1495,23 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
@@ -1538,8 +1548,19 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I33" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:I34" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07968EAC-475F-47AC-8208-2821E3C39EC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C04DAF-B0AC-46FB-9A3F-F8518471487E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USER_STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>身長</t>
     <rPh sb="0" eb="2">
       <t>シンチョウ</t>
@@ -241,10 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +395,20 @@
   </si>
   <si>
     <t>DECIMAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康情報ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEALTH_INFO_STATUS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -812,7 +818,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -831,10 +837,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -849,10 +855,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -876,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -899,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -922,10 +928,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -966,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -989,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1058,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1079,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1096,16 +1102,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1119,16 +1125,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1148,10 +1154,10 @@
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1165,16 +1171,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1188,16 +1194,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1245,10 +1251,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -1261,111 +1267,111 @@
         <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1383,10 +1389,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -1420,65 +1426,65 @@
         <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1496,10 +1502,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C04DAF-B0AC-46FB-9A3F-F8518471487E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A91DD-422C-4691-9318-204F1F0AB113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -409,6 +409,17 @@
   </si>
   <si>
     <t>HEALTH_INFO_STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -812,13 +823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -831,11 +842,12 @@
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -863,8 +875,11 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -888,8 +903,9 @@
         <v>55</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -911,8 +927,9 @@
         <v>55</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -934,8 +951,9 @@
         <v>57</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -955,8 +973,9 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -978,8 +997,9 @@
         <v>58</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1021,9 @@
         <v>59</v>
       </c>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1043,9 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1065,11 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1068,8 +1093,9 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1091,8 +1117,9 @@
         <v>55</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1114,8 +1141,9 @@
         <v>60</v>
       </c>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1137,8 +1165,9 @@
         <v>56</v>
       </c>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1160,8 +1189,9 @@
         <v>56</v>
       </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1183,8 +1213,9 @@
         <v>56</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1206,8 +1237,11 @@
         <v>62</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1227,8 +1261,11 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1248,8 +1285,9 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1273,8 +1311,9 @@
         <v>55</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1296,8 +1335,9 @@
         <v>57</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1319,8 +1359,9 @@
         <v>57</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1342,8 +1383,9 @@
         <v>57</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1365,8 +1407,11 @@
         <v>57</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1386,8 +1431,9 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -1407,8 +1453,9 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1432,8 +1479,9 @@
         <v>55</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1455,8 +1503,9 @@
         <v>59</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1478,8 +1527,9 @@
         <v>59</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1499,8 +1549,9 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1520,8 +1571,9 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1531,8 +1583,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1542,8 +1595,9 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1553,8 +1607,9 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1564,9 +1619,10 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I34" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:J34" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3g\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A91DD-422C-4691-9318-204F1F0AB113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF189F3A-0369-485C-A0B6-F159EE913783}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,7 +843,7 @@
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF189F3A-0369-485C-A0B6-F159EE913783}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00835D4A-8A37-45DD-A0EA-D924722C4A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="12855" windowHeight="9375" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="4410" yWindow="2190" windowWidth="21600" windowHeight="11835" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$35</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -416,6 +416,26 @@
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康情報作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEALTH_INFO_REG_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -823,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1065,9 +1085,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1237,9 +1255,7 @@
         <v>62</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
@@ -1251,10 +1267,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
@@ -1262,7 +1278,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1275,10 +1291,10 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>23</v>
@@ -1289,27 +1305,23 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -1320,19 +1332,21 @@
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1347,10 +1361,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>61</v>
@@ -1371,10 +1385,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>61</v>
@@ -1395,10 +1409,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>61</v>
@@ -1407,9 +1421,7 @@
         <v>57</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
@@ -1421,15 +1433,17 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
@@ -1443,10 +1457,10 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>23</v>
@@ -1457,27 +1471,23 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
@@ -1488,19 +1498,21 @@
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1515,10 +1527,10 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>61</v>
@@ -1539,15 +1551,17 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -1561,10 +1575,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>23</v>
@@ -1574,13 +1588,23 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1621,8 +1645,20 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J34" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:J35" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00835D4A-8A37-45DD-A0EA-D924722C4A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678D9D0-4F74-4F0A-B995-5C8BCE2C57EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2190" windowWidth="21600" windowHeight="11835" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="585" yWindow="2535" windowWidth="14760" windowHeight="14190" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -861,8 +861,8 @@
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678D9D0-4F74-4F0A-B995-5C8BCE2C57EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9CBDD-363D-46E7-8875-FAE8EF8F7BB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="2535" windowWidth="14760" windowHeight="14190" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2415" yWindow="2685" windowWidth="23355" windowHeight="14190" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$45</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -439,8 +439,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
+    <t>BMI範囲マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI_RANGE_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI範囲ID</t>
+  </si>
+  <si>
+    <t>BMI_RANGE_ID</t>
+  </si>
+  <si>
+    <t>範囲下限</t>
+  </si>
+  <si>
+    <t>RANGE_MIN</t>
+  </si>
+  <si>
+    <t>範囲上限</t>
+  </si>
+  <si>
+    <t>RANGE_MAX</t>
+  </si>
+  <si>
+    <t>肥満度ステータス</t>
+  </si>
+  <si>
+    <t>OVER_WEIGHT_STATUS</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
 </sst>
 </file>
@@ -843,13 +892,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -862,7 +911,7 @@
     <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -1277,9 +1326,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
@@ -1610,55 +1657,241 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J35" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:J45" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9CBDD-363D-46E7-8875-FAE8EF8F7BB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08528F74-46AB-45C5-ADAD-321D9EF50371}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2685" windowWidth="23355" windowHeight="14190" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2700" yWindow="1845" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="95">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -490,6 +490,43 @@
   </si>
   <si>
     <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>SYSTEM_ENVIRONMENT_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム環境マスタ</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境ID</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング件数</t>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENVIRONMENT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAGING_COUNT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -565,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,8 +612,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,31 +932,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -1795,49 +1835,93 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1890,10 +1974,298 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J45" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:J69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08528F74-46AB-45C5-ADAD-321D9EF50371}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A941E-BF90-4094-8DFD-A389901A9FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1845" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="5445" yWindow="4650" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,13 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
   <si>
     <t>PRIMARY_KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -157,14 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HEALTH_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -237,10 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HEALTH_INFO_FILE_SETTING</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,10 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>健康情報ステータス</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
@@ -503,10 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>環境ID</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
@@ -527,6 +501,15 @@
   <si>
     <t>PAGING_COUNT</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -935,10 +918,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -958,127 +941,127 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1086,69 +1069,69 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1156,21 +1139,21 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1178,25 +1161,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1204,165 +1187,165 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1370,21 +1353,21 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1392,21 +1375,21 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1414,143 +1397,143 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1558,21 +1541,21 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1580,95 +1563,95 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1676,21 +1659,21 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1698,25 +1681,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1724,21 +1707,21 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1746,21 +1729,21 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1768,45 +1751,45 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1814,21 +1797,21 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1836,47 +1819,47 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1884,21 +1867,21 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1906,21 +1889,21 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2265,6 +2248,903 @@
   </sheetData>
   <autoFilter ref="A1:J69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G69" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+      <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D69" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+      <formula1>",1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G69" xr:uid="{56C2F51E-A9D7-4AB4-B2F9-C6D83801206B}">
+      <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D69" xr:uid="{10590BA6-0486-4ADF-975C-6473957689D6}">
+      <formula1>",1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A941E-BF90-4094-8DFD-A389901A9FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BAAD2-BE69-4C8C-AB08-F198DFC59EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="4650" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-23445" yWindow="2940" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -510,6 +510,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>CRYPT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -915,13 +919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -930,16 +934,17 @@
     <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -953,25 +958,28 @@
         <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,22 +990,23 @@
         <v>90</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1007,21 +1016,24 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1030,22 +1042,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1054,20 +1067,21 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1076,22 +1090,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1101,21 +1116,24 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1124,20 +1142,21 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1146,20 +1165,21 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1172,20 +1192,21 @@
       <c r="D10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1194,22 +1215,23 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1219,21 +1241,24 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1243,21 +1268,24 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1267,21 +1295,24 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1291,21 +1322,24 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1314,22 +1348,23 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1338,20 +1373,21 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1360,20 +1396,21 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1382,20 +1419,21 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1406,22 +1444,23 @@
         <v>90</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1430,22 +1469,23 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1454,22 +1494,23 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1478,22 +1519,23 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1502,22 +1544,23 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1526,20 +1569,21 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1548,20 +1592,21 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1572,22 +1617,23 @@
         <v>90</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1597,21 +1643,24 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -1621,21 +1670,24 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1644,20 +1696,21 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1666,20 +1719,21 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1692,20 +1746,21 @@
       <c r="D32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1714,20 +1769,21 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1736,20 +1792,21 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1758,22 +1815,23 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1782,20 +1840,21 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -1804,20 +1863,21 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -1828,22 +1888,23 @@
         <v>90</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -1852,20 +1913,21 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -1874,20 +1936,21 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -1896,20 +1959,21 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1920,8 +1984,9 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1932,8 +1997,9 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1944,8 +2010,9 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1956,8 +2023,9 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1968,8 +2036,9 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1980,8 +2049,9 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1992,8 +2062,9 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2004,8 +2075,9 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2016,8 +2088,9 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2028,8 +2101,9 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2040,8 +2114,9 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2052,8 +2127,9 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2064,8 +2140,9 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2076,8 +2153,9 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2088,8 +2166,9 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2100,8 +2179,9 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2112,8 +2192,9 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2124,8 +2205,9 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2136,8 +2218,9 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2148,8 +2231,9 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2160,8 +2244,9 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2172,8 +2257,9 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2184,8 +2270,9 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2196,8 +2283,9 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2208,8 +2296,9 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2220,8 +2309,9 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2232,8 +2322,9 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2244,15 +2335,16 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G69" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H69" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D69" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E69" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BAAD2-BE69-4C8C-AB08-F198DFC59EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DA874-6961-4892-9035-BB83ECE2DADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23445" yWindow="2940" windowWidth="21600" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28335" yWindow="4320" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -513,6 +513,14 @@
   </si>
   <si>
     <t>CRYPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -925,7 +933,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1028,7 +1036,7 @@
         <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1115,9 +1123,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1240,9 +1246,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1267,9 +1271,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1294,9 +1296,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1321,9 +1321,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1682,7 +1680,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>

--- a/ha-tool/src/main/resources/META-INF/DB.xlsx
+++ b/ha-tool/src/main/resources/META-INF/DB.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\git\work-3g\ha-tool\src\main\resources\META-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DA874-6961-4892-9035-BB83ECE2DADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB43A5-3C9C-4BC7-ABDB-6549495B2B8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28335" yWindow="4320" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="3750" yWindow="1965" windowWidth="20085" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -468,39 +468,6 @@
   </si>
   <si>
     <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>SYSTEM_ENVIRONMENT_MT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム環境マスタ</t>
-    <rPh sb="4" eb="6">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境ID</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページング件数</t>
-    <rPh sb="5" eb="7">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENVIRONMENT_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PAGING_COUNT</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DATE</t>
@@ -927,13 +894,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -966,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -995,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1024,7 +991,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1036,7 +1003,7 @@
         <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1083,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1193,10 +1160,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1254,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>56</v>
@@ -1279,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>52</v>
@@ -1304,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>52</v>
@@ -1329,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>52</v>
@@ -1439,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1612,7 +1579,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1641,7 +1608,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>45</v>
@@ -1653,7 +1620,7 @@
         <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1668,7 +1635,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
@@ -1680,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1739,10 +1706,10 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
@@ -1876,97 +1843,53 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2283,66 +2206,14 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K65" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H69" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H65" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E69" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E65" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
